--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed1/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.3403</v>
+        <v>16.48559999999999</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.263400000000004</v>
+        <v>8.706799999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.542399999999999</v>
+        <v>6.7406</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.278800000000001</v>
+        <v>5.048799999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.1356</v>
+        <v>-14.05209999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5582</v>
+        <v>6.630600000000006</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.0585</v>
+        <v>-12.19380000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,13 +638,13 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.9895</v>
+        <v>-11.2158</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.449999999999999</v>
+        <v>-7.377399999999997</v>
       </c>
       <c r="E12" t="n">
-        <v>17.00300000000001</v>
+        <v>17.07640000000001</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.507500000000009</v>
+        <v>-8.876700000000007</v>
       </c>
       <c r="E13" t="n">
-        <v>16.5813</v>
+        <v>16.587</v>
       </c>
     </row>
     <row r="14">
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.0534</v>
+        <v>-7.915099999999998</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.64189999999999</v>
+        <v>-14.78029999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,13 +703,13 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>7.393599999999996</v>
+        <v>7.264799999999996</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.697800000000006</v>
+        <v>-8.711300000000001</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.824899999999993</v>
+        <v>-7.779599999999995</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,13 +771,13 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.069299999999997</v>
+        <v>9.440399999999993</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.44060000000001</v>
+        <v>-12.30510000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.270799999999994</v>
+        <v>-7.832999999999998</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -788,10 +788,10 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.650499999999997</v>
+        <v>9.8277</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.35410000000001</v>
+        <v>-12.33890000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,13 +808,13 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.4569</v>
+        <v>-12.2754</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.0639</v>
+        <v>-7.640400000000003</v>
       </c>
       <c r="E22" t="n">
-        <v>16.59550000000001</v>
+        <v>16.6112</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.23180000000001</v>
+        <v>-12.0236</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16.9942</v>
+        <v>17.03380000000001</v>
       </c>
     </row>
     <row r="26">
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.833399999999996</v>
+        <v>5.919399999999996</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,16 +924,16 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.0358</v>
+        <v>5.192100000000005</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.8395</v>
+        <v>-11.0389</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.2395</v>
+        <v>17.43270000000001</v>
       </c>
     </row>
     <row r="30">
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.945500000000002</v>
+        <v>4.954000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.206599999999994</v>
+        <v>7.338999999999998</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,13 +1012,13 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.28010000000001</v>
+        <v>-12.51600000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.49609999999999</v>
+        <v>17.5077</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.387399999999998</v>
+        <v>-8.428000000000001</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.65279999999999</v>
+        <v>9.779599999999993</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.25210000000001</v>
+        <v>-12.2786</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.81859999999999</v>
+        <v>-13.57529999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.284400000000002</v>
+        <v>-8.086699999999997</v>
       </c>
       <c r="E43" t="n">
-        <v>16.5286</v>
+        <v>16.3514</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.99879999999999</v>
+        <v>-13.9128</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.73189999999999</v>
+        <v>-13.6933</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,13 +1213,13 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.756999999999998</v>
+        <v>6.159399999999998</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.6119</v>
+        <v>-13.0778</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.392100000000001</v>
+        <v>-8.502699999999997</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.4671</v>
+        <v>17.43180000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.69979999999999</v>
+        <v>-13.92949999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.0078</v>
+        <v>-8.279099999999998</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.329000000000004</v>
+        <v>6.412000000000002</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.8552</v>
+        <v>-12.06480000000001</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.842399999999998</v>
+        <v>5.409699999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,10 +1400,10 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>6.230899999999997</v>
+        <v>6.306899999999996</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.3672</v>
+        <v>-13.29449999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.737200000000001</v>
+        <v>5.427099999999998</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>16.0172</v>
+        <v>15.9884</v>
       </c>
     </row>
     <row r="61">
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.6215</v>
+        <v>5.6293</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-13.03849999999999</v>
+        <v>-12.62629999999999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.6392</v>
+        <v>5.683400000000002</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.33690000000001</v>
+        <v>-11.62300000000001</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.3287</v>
+        <v>-11.6095</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.60530000000001</v>
+        <v>17.89050000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.99930000000002</v>
+        <v>18.25360000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>-7.44</v>
       </c>
       <c r="E71" t="n">
-        <v>17.27090000000001</v>
+        <v>17.3517</v>
       </c>
     </row>
     <row r="72">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.189799999999998</v>
+        <v>8.468500000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.51380000000001</v>
+        <v>17.66540000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.159199999999988</v>
+        <v>9.336199999999989</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.941700000000003</v>
+        <v>-7.986000000000003</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.888300000000006</v>
+        <v>8.729400000000004</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.91990000000002</v>
+        <v>17.06430000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.6858</v>
+        <v>-11.9931</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.28129999999999</v>
+        <v>-13.04279999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,13 +1913,13 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.50339999999999</v>
+        <v>-13.68829999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.1765</v>
+        <v>16.12869999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1995,16 +1995,16 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.914399999999993</v>
+        <v>5.819299999999994</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.794</v>
+        <v>-11.6186</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.17190000000002</v>
+        <v>18.21790000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.030900000000003</v>
+        <v>-7.993800000000002</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.04140000000001</v>
+        <v>-12.3575</v>
       </c>
       <c r="D97" t="n">
-        <v>-9.305199999999996</v>
+        <v>-8.988400000000004</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.068500000000007</v>
+        <v>-8.179200000000002</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>6.094199999999997</v>
+        <v>5.425099999999995</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>17.02960000000001</v>
+        <v>17.04300000000001</v>
       </c>
     </row>
     <row r="102">
